--- a/doc/dictionnaire_de_donnees.xlsx
+++ b/doc/dictionnaire_de_donnees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/SUP3/projet_groupe/SUP3/AntiGaspi/doc/enquete_satisfaction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/SUP3/AntiGaspi/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC4BAF-BF2F-1145-ADA5-C604FA7453F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B98D5A-3D52-CD40-BC09-858557317F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="1300" windowWidth="15620" windowHeight="19980" xr2:uid="{BA6C233D-984A-B748-8124-452BBE3F6429}"/>
+    <workbookView xWindow="480" yWindow="900" windowWidth="23220" windowHeight="19980" xr2:uid="{BA6C233D-984A-B748-8124-452BBE3F6429}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="254">
   <si>
     <t>Type</t>
   </si>
@@ -467,9 +467,6 @@
     <t>dateheure_debut</t>
   </si>
   <si>
-    <t xml:space="preserve">date et heure de la commande </t>
-  </si>
-  <si>
     <t>dateheure_fin_reel</t>
   </si>
   <si>
@@ -752,9 +749,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>descirption</t>
-  </si>
-  <si>
     <t>date de création de l'annonce du poste</t>
   </si>
   <si>
@@ -771,6 +765,39 @@
   </si>
   <si>
     <t xml:space="preserve">code bic du code banquaire </t>
+  </si>
+  <si>
+    <t>numquestion</t>
+  </si>
+  <si>
+    <t>type_question</t>
+  </si>
+  <si>
+    <t>numéro de la question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type de la question (choix entre 'note', 'note_image', 'qcm', 'qcm_image', 'qcu', 'qcu_image') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">réponse possible à la question (null si note ou note_image) </t>
+  </si>
+  <si>
+    <t>not null | UNIQUE</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>niveau du manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date et heure de la création de la commande </t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -793,12 +820,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -813,11 +864,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,16 +875,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,1467 +1275,2214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CE1E2-8AED-FA4F-A76A-C0C7341E4D58}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="35.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10">
+        <v>60</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="21">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="28">
+        <v>100</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14">
+        <v>255</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21">
+        <v>3</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21">
+        <v>255</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="33" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="21">
+        <v>255</v>
+      </c>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="21">
+        <v>100</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="21">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>255</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2">
-        <v>255</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E29" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="10">
+        <v>10</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="21">
+        <v>100</v>
+      </c>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="10">
+        <v>100</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B33" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="C33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="21">
+        <v>100</v>
+      </c>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="C34" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="14">
         <v>5</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E36" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B37" s="27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="C37" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="28">
+        <v>100</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B38" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="C38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="14">
+        <v>100</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B39" s="27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="C39" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="41" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="21">
         <v>5</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E41" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="C42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="10">
+        <v>100</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B44" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="14">
         <v>5</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E44" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B45" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="C45" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="28">
+        <v>100</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B46" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="C46" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B47" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="C47" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="26" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B49" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="C49" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B50" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="C50" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="10">
         <v>5</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E52" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="14">
         <v>5</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E54" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B55" s="27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="C55" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="28">
+        <v>100</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B56" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="C56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="14">
+        <v>100</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10">
         <v>5</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E58" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B59" s="20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="2">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>11</v>
+      <c r="C59" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="21">
+        <v>100</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="10">
+        <v>255</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="14">
+        <v>5</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B63" s="27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="C63" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="28">
+        <v>255</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B64" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="C64" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B65" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="C65" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B66" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="C66" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B67" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="C67" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="B68" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="14">
+        <v>100</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="C70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="10">
         <v>5</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E70" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B72" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="C72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="14">
+        <v>5</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B73" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="C73" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="28">
+        <v>255</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B74" s="13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="C74" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="C76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="10">
         <v>5</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E76" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B77" s="20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="C77" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="21">
+        <v>100</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="C78" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="10">
+        <v>255</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B80" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="2">
+      <c r="C80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="14">
         <v>5</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E80" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B81" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="C81" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="28">
+        <v>100</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="C82" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="14">
+        <v>255</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B83" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="C83" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B84" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="C84" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="14">
+        <v>50</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B85" s="27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="C85" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="28">
+        <v>100</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B86" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="C86" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="14">
+        <v>100</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B87" s="27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="C87" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="28">
+        <v>10</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B88" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="C90" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="21">
+        <v>5</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="10">
+        <v>255</v>
+      </c>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="21">
+        <v>255</v>
+      </c>
+      <c r="E95" s="19"/>
+    </row>
+    <row r="97" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="28">
+        <v>5</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="27" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="C99" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" s="14"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="10">
+        <v>5</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="10">
+        <v>5</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="28">
+        <v>5</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="14">
+        <v>50</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="32">
+        <v>255</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="B108" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D108" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="28">
         <v>5</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E109" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="14">
+        <v>5</v>
+      </c>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="10">
+        <v>5</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="2">
-        <v>5</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2">
-        <v>5</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="2">
-        <v>5</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="7" t="s">
+    <row r="113" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C109" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="2">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="2">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>11</v>
+      <c r="C113" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="21">
+        <v>100</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="10">
+        <v>255</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="14">
+        <v>5</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B117" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="28">
+        <v>100</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+      <c r="B118" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C118" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+      <c r="B120" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="C120" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="10">
+        <v>5</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C117" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="2">
+      <c r="C121" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="24">
+        <v>255</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="18">
+        <v>50</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="24">
+        <v>100</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="18">
+        <v>100</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="24">
+        <v>10</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="28">
         <v>5</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E127" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="25">
+        <v>100</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C124" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="B129" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" s="28"/>
+      <c r="E129" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="14"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D131" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="25">
+        <v>255</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="21">
         <v>5</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E135" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
+    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="B136" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="18">
+        <v>100</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="24">
+        <v>255</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="18">
+        <v>255</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="14">
+        <v>5</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="32">
+        <v>255</v>
+      </c>
+      <c r="E141" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="25">
+        <v>255</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="10">
+        <v>5</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="33" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" s="21"/>
+      <c r="E145" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="18">
+        <v>255</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="14">
+        <v>5</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="32">
+        <v>100</v>
+      </c>
+      <c r="E149" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D150" s="14"/>
+      <c r="E150" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="32">
+        <v>100</v>
+      </c>
+      <c r="E151" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="33" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D153" s="21"/>
+      <c r="E153" s="19"/>
+    </row>
+    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="18">
+        <v>100</v>
+      </c>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="1:5" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="24">
+        <v>255</v>
+      </c>
+      <c r="E155" s="19"/>
+    </row>
+    <row r="157" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="28">
+        <v>5</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="25">
+        <v>100</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="29" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="32">
+        <v>40</v>
+      </c>
+      <c r="E159" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="B160" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" s="2">
-        <v>5</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C137" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="2">
-        <v>5</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C141" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="2">
-        <v>5</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C145" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="2">
-        <v>5</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C154" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="2">
-        <v>5</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
+      <c r="C160" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="14">
+        <v>8</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="B161" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="32">
+        <v>40</v>
+      </c>
+      <c r="E161" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+      <c r="C162" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="25">
+        <v>40</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
+      <c r="B163" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="C163" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D163" s="28"/>
+      <c r="E163" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
